--- a/Beta_xls/03_Algebra_m_propag_VAR.xlsx
+++ b/Beta_xls/03_Algebra_m_propag_VAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\15_REPOS\01_Beta-Me\Beta_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803A8725-9409-4C0F-B293-04450BB10A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC536AE4-ED64-48FA-8ADC-E2D04ADB7865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{C17F372F-597A-41B4-9564-0C9DDFBB3E17}"/>
   </bookViews>
@@ -11935,7 +11935,7 @@
   <dimension ref="A1:BJ64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="BA8" sqref="BA8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13967,81 +13967,81 @@
       <c r="A24" s="3"/>
       <c r="B24" s="175">
         <f t="shared" ref="B24:J32" ca="1" si="3">RANDBETWEEN(1,$I$33)/$J$33</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C24" s="176">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="D24" s="177">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="E24" s="170">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="F24" s="170">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G24" s="170">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H24" s="170">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I24" s="170">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="J24" s="171">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="K24" s="3"/>
       <c r="L24" s="102">
         <f t="array" aca="1" ref="L24:T32" ca="1">MMULT(B36:J44,MMULT(AJ24:AR32,Z36:AH44))</f>
-        <v>0.92905991704260293</v>
+        <v>2.5406538150950522</v>
       </c>
       <c r="M24" s="103">
         <f ca="1"/>
-        <v>0.13242205458177669</v>
+        <v>-0.37831405558344455</v>
       </c>
       <c r="N24" s="104">
         <f ca="1"/>
-        <v>1.4290310322336577</v>
+        <v>0.31805930973174501</v>
       </c>
       <c r="O24" s="105">
         <f ca="1"/>
-        <v>-4.0651283656990014E-2</v>
+        <v>-7.507536045189946</v>
       </c>
       <c r="P24" s="105">
         <f ca="1"/>
-        <v>-2.4040694017254922</v>
+        <v>-1.0365754025215601</v>
       </c>
       <c r="Q24" s="106">
         <f ca="1"/>
-        <v>0.81172015884659898</v>
+        <v>4.7146075074423548</v>
       </c>
       <c r="R24" s="105">
         <f ca="1"/>
-        <v>-0.66130338334981364</v>
+        <v>3.3656017719186373</v>
       </c>
       <c r="S24" s="105">
         <f ca="1"/>
-        <v>0.38905467582651282</v>
+        <v>5.8513641425011444</v>
       </c>
       <c r="T24" s="106">
         <f ca="1"/>
-        <v>-1.0811541150278163</v>
+        <v>-7.4777908278252836</v>
       </c>
       <c r="U24" s="3"/>
       <c r="V24" s="31">
         <f t="array" aca="1" ref="V24:V32" ca="1">MMULT(B24:J32,MMULT(L24:T32,MMULT(Z24:AH32,X24:X32)))</f>
-        <v>5.5000000000001208</v>
+        <v>5.4999999999994884</v>
       </c>
       <c r="W24" s="3"/>
       <c r="X24" s="32">
@@ -14051,31 +14051,31 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="64">
         <f t="array" aca="1" ref="Z24:AH32" ca="1">TRANSPOSE(B24:J32)</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA24" s="65">
+        <f ca="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="AB24" s="65">
+        <f ca="1"/>
         <v>0.6</v>
       </c>
-      <c r="AA24" s="65">
-        <f ca="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AB24" s="65">
-        <f ca="1"/>
-        <v>1.2</v>
-      </c>
       <c r="AC24" s="64">
         <f ca="1"/>
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="AD24" s="65">
         <f ca="1"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AE24" s="66">
         <f ca="1"/>
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="AF24" s="65">
         <f ca="1"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AG24" s="65">
         <f ca="1"/>
@@ -14083,7 +14083,7 @@
       </c>
       <c r="AH24" s="66">
         <f ca="1"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="67">
@@ -14117,15 +14117,15 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="33">
         <f ca="1">V24</f>
-        <v>5.5000000000001208</v>
+        <v>5.4999999999994884</v>
       </c>
       <c r="AU24" s="34">
         <f ca="1">V27</f>
-        <v>6.0000000000001119</v>
+        <v>5.9999999999995968</v>
       </c>
       <c r="AV24" s="35">
         <f ca="1">V30</f>
-        <v>5.5000000000001776</v>
+        <v>5.4999999999997433</v>
       </c>
       <c r="AW24" s="3"/>
       <c r="AX24" s="3"/>
@@ -14146,81 +14146,81 @@
       <c r="A25" s="3"/>
       <c r="B25" s="178">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="C25" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="D25" s="179">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="E25" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="F25" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="G25" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H25" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="I25" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J25" s="172">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="K25" s="3"/>
       <c r="L25" s="107">
         <f ca="1"/>
-        <v>-1.2152225423663704E-2</v>
+        <v>-0.80723225887961414</v>
       </c>
       <c r="M25" s="108">
         <f ca="1"/>
-        <v>0.57893529130484289</v>
+        <v>1.9496542099466256</v>
       </c>
       <c r="N25" s="109">
         <f ca="1"/>
-        <v>5.6996653970140985</v>
+        <v>1.1500145008879055</v>
       </c>
       <c r="O25" s="108">
         <f ca="1"/>
-        <v>2.4958451660415935</v>
+        <v>6.2236576005185444</v>
       </c>
       <c r="P25" s="108">
         <f ca="1"/>
-        <v>-6.0138570335450101</v>
+        <v>-1.3214357664416854</v>
       </c>
       <c r="Q25" s="110">
         <f ca="1"/>
-        <v>3.3585114638552414</v>
+        <v>-4.8060784442672464</v>
       </c>
       <c r="R25" s="108">
         <f ca="1"/>
-        <v>1.6611234899013185</v>
+        <v>-1.3987469063085956</v>
       </c>
       <c r="S25" s="108">
         <f ca="1"/>
-        <v>-2.0771981268880513</v>
+        <v>-6.013768475516537</v>
       </c>
       <c r="T25" s="110">
         <f ca="1"/>
-        <v>-7.6026036989565133</v>
+        <v>4.7233719544804575</v>
       </c>
       <c r="U25" s="3"/>
       <c r="V25" s="42">
         <f ca="1"/>
-        <v>5.0000000000001554</v>
+        <v>4.9999999999997691</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="43">
@@ -14229,39 +14229,39 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="73">
         <f ca="1"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AA25" s="74">
         <f ca="1"/>
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="AB25" s="74">
         <f ca="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC25" s="73">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="74">
+        <f ca="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="AE25" s="75">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="74">
+        <f ca="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AG25" s="74">
+        <f ca="1"/>
         <v>1.6</v>
       </c>
-      <c r="AC25" s="73">
-        <f ca="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="AD25" s="74">
-        <f ca="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE25" s="75">
+      <c r="AH25" s="75">
         <f ca="1"/>
         <v>1.2</v>
-      </c>
-      <c r="AF25" s="74">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG25" s="74">
-        <f ca="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AH25" s="75">
-        <f ca="1"/>
-        <v>0.8</v>
       </c>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="76">
@@ -14294,15 +14294,15 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="14">
         <f ca="1">V25</f>
-        <v>5.0000000000001554</v>
+        <v>4.9999999999997691</v>
       </c>
       <c r="AU25" s="17">
         <f ca="1">V28</f>
-        <v>2.3270274596143281E-13</v>
+        <v>-2.3092638912203256E-13</v>
       </c>
       <c r="AV25" s="44">
         <f ca="1">V31</f>
-        <v>5.0000000000001616</v>
+        <v>4.9999999999996767</v>
       </c>
       <c r="AW25" s="3"/>
       <c r="AX25" s="3"/>
@@ -14323,23 +14323,23 @@
       <c r="A26" s="3"/>
       <c r="B26" s="178">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="C26" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="D26" s="179">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="E26" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="F26" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="G26" s="72">
         <f t="shared" ca="1" si="3"/>
@@ -14355,49 +14355,49 @@
       </c>
       <c r="J26" s="172">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="111">
         <f ca="1"/>
-        <v>1.4001776359934248</v>
+        <v>0.30262686196899258</v>
       </c>
       <c r="M26" s="112">
         <f ca="1"/>
-        <v>5.2727815899611326</v>
+        <v>1.4671267835701973</v>
       </c>
       <c r="N26" s="113">
         <f ca="1"/>
-        <v>-2.1405631447578246</v>
+        <v>1.1504626891027576</v>
       </c>
       <c r="O26" s="108">
         <f ca="1"/>
-        <v>-3.0732212569338002</v>
+        <v>-1.7009364481402529</v>
       </c>
       <c r="P26" s="108">
         <f ca="1"/>
-        <v>-0.64402531059966772</v>
+        <v>-0.72034326635574975</v>
       </c>
       <c r="Q26" s="110">
         <f ca="1"/>
-        <v>1.2450555655174591</v>
+        <v>0.18934088268829719</v>
       </c>
       <c r="R26" s="114">
         <f ca="1"/>
-        <v>-4.706013800749445</v>
+        <v>0.49184228172509903</v>
       </c>
       <c r="S26" s="114">
         <f ca="1"/>
-        <v>0.62982791632016255</v>
+        <v>0.45858301546099822</v>
       </c>
       <c r="T26" s="115">
         <f ca="1"/>
-        <v>2.9160353595373825</v>
+        <v>-1.6462513664631391</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="53">
         <f ca="1"/>
-        <v>4.0000000000004032</v>
+        <v>3.9999999999998064</v>
       </c>
       <c r="W26" s="3"/>
       <c r="X26" s="54">
@@ -14406,39 +14406,39 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="80">
         <f ca="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA26" s="81">
+        <f ca="1"/>
         <v>0.4</v>
       </c>
-      <c r="AA26" s="81">
-        <f ca="1"/>
-        <v>0.6</v>
-      </c>
       <c r="AB26" s="81">
         <f ca="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AC26" s="80">
+        <f ca="1"/>
         <v>2</v>
       </c>
-      <c r="AC26" s="80">
+      <c r="AD26" s="81">
+        <f ca="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="AE26" s="82">
+        <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="AF26" s="81">
+        <f ca="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="AG26" s="81">
         <f ca="1"/>
         <v>0.2</v>
       </c>
-      <c r="AD26" s="81">
-        <f ca="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AE26" s="82">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AF26" s="81">
-        <f ca="1"/>
-        <v>2</v>
-      </c>
-      <c r="AG26" s="81">
-        <f ca="1"/>
-        <v>1.6</v>
-      </c>
       <c r="AH26" s="82">
         <f ca="1"/>
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="83">
@@ -14471,15 +14471,15 @@
       <c r="AS26" s="3"/>
       <c r="AT26" s="18">
         <f ca="1">V26</f>
-        <v>4.0000000000004032</v>
+        <v>3.9999999999998064</v>
       </c>
       <c r="AU26" s="19">
         <f ca="1">V29</f>
-        <v>3.0000000000004041</v>
+        <v>2.9999999999999223</v>
       </c>
       <c r="AV26" s="88">
         <f ca="1">V32</f>
-        <v>4.0000000000001767</v>
+        <v>3.9999999999996492</v>
       </c>
       <c r="AW26" s="3"/>
       <c r="AX26" s="3"/>
@@ -14500,19 +14500,19 @@
       <c r="A27" s="3"/>
       <c r="B27" s="175">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="C27" s="176">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D27" s="177">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="E27" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F27" s="72">
         <f t="shared" ca="1" si="3"/>
@@ -14520,61 +14520,61 @@
       </c>
       <c r="G27" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H27" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="I27" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="J27" s="172">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="116">
         <f ca="1"/>
-        <v>-0.24447538843672853</v>
+        <v>-6.024345124984527</v>
       </c>
       <c r="M27" s="108">
         <f ca="1"/>
-        <v>1.3473322307234152</v>
+        <v>6.714014253328509</v>
       </c>
       <c r="N27" s="108">
         <f ca="1"/>
-        <v>-2.7006051110623277</v>
+        <v>-0.58672525794834307</v>
       </c>
       <c r="O27" s="102">
         <f ca="1"/>
-        <v>-0.54416342674576024</v>
+        <v>-5.9903616640883177</v>
       </c>
       <c r="P27" s="103">
         <f ca="1"/>
-        <v>2.4612877148481358</v>
+        <v>6.5319181786912459</v>
       </c>
       <c r="Q27" s="104">
         <f ca="1"/>
-        <v>-1.0487552477299951</v>
+        <v>-0.25280102601389637</v>
       </c>
       <c r="R27" s="105">
         <f ca="1"/>
-        <v>-0.80536001319464567</v>
+        <v>-10.495628022780121</v>
       </c>
       <c r="S27" s="105">
         <f ca="1"/>
-        <v>1.2575327733806041E-2</v>
+        <v>4.4642859480947923</v>
       </c>
       <c r="T27" s="106">
         <f ca="1"/>
-        <v>2.3923499549731173</v>
+        <v>5.1568471933014255</v>
       </c>
       <c r="U27" s="3"/>
       <c r="V27" s="57">
         <f ca="1"/>
-        <v>6.0000000000001119</v>
+        <v>5.9999999999995968</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="32">
@@ -14583,35 +14583,35 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="89">
         <f ca="1"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AA27" s="74">
         <f ca="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AB27" s="74">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC27" s="74">
+        <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="AD27" s="74">
+        <f ca="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE27" s="74">
+        <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="AF27" s="74">
+        <f ca="1"/>
         <v>0.2</v>
       </c>
-      <c r="AB27" s="74">
-        <f ca="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AC27" s="74">
-        <f ca="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AD27" s="74">
-        <f ca="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AE27" s="74">
-        <f ca="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AF27" s="74">
+      <c r="AG27" s="74">
         <f ca="1"/>
         <v>1.2</v>
-      </c>
-      <c r="AG27" s="74">
-        <f ca="1"/>
-        <v>1.4</v>
       </c>
       <c r="AH27" s="90">
         <f ca="1"/>
@@ -14668,27 +14668,27 @@
       <c r="A28" s="3"/>
       <c r="B28" s="178">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="C28" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="D28" s="179">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="E28" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="F28" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="G28" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H28" s="72">
         <f t="shared" ca="1" si="3"/>
@@ -14696,7 +14696,7 @@
       </c>
       <c r="I28" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J28" s="172">
         <f t="shared" ca="1" si="3"/>
@@ -14705,44 +14705,44 @@
       <c r="K28" s="3"/>
       <c r="L28" s="116">
         <f ca="1"/>
-        <v>-2.259632425441112</v>
+        <v>-1.1895729780984392</v>
       </c>
       <c r="M28" s="117">
         <f ca="1"/>
-        <v>-5.4323823131215363</v>
+        <v>-2.0410493633339253</v>
       </c>
       <c r="N28" s="108">
         <f ca="1"/>
-        <v>-0.95445594737509765</v>
+        <v>-0.85935067900751916</v>
       </c>
       <c r="O28" s="118">
         <f ca="1"/>
-        <v>2.1336418067605529</v>
+        <v>8.8454151725081154</v>
       </c>
       <c r="P28" s="119">
         <f ca="1"/>
-        <v>5.2177540346952247</v>
+        <v>0.34477236717711979</v>
       </c>
       <c r="Q28" s="109">
         <f ca="1"/>
-        <v>-2.9215397377283203</v>
+        <v>-4.2741883081680712</v>
       </c>
       <c r="R28" s="108">
         <f ca="1"/>
-        <v>4.987210691323428</v>
+        <v>-1.4735554225953384</v>
       </c>
       <c r="S28" s="108">
         <f ca="1"/>
-        <v>-0.6852529681215902</v>
+        <v>-6.2456665946199861</v>
       </c>
       <c r="T28" s="110">
         <f ca="1"/>
-        <v>0.19535346366039932</v>
+        <v>6.684171291412949</v>
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="59">
         <f ca="1"/>
-        <v>2.3270274596143281E-13</v>
+        <v>-2.3092638912203256E-13</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="60">
@@ -14751,39 +14751,39 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="89">
         <f ca="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA28" s="74">
+        <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB28" s="74">
+        <f ca="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC28" s="74">
+        <f ca="1"/>
         <v>0.4</v>
       </c>
-      <c r="AA28" s="74">
-        <f ca="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB28" s="74">
-        <f ca="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="AC28" s="74">
-        <f ca="1"/>
-        <v>0.4</v>
-      </c>
       <c r="AD28" s="74">
         <f ca="1"/>
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="AE28" s="74">
         <f ca="1"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AF28" s="74">
         <f ca="1"/>
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AG28" s="74">
         <f ca="1"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AH28" s="90">
         <f ca="1"/>
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="91">
@@ -14836,15 +14836,15 @@
       <c r="A29" s="3"/>
       <c r="B29" s="180">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="C29" s="181">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="182">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="E29" s="72">
         <f t="shared" ca="1" si="3"/>
@@ -14852,65 +14852,65 @@
       </c>
       <c r="F29" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="G29" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H29" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I29" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="J29" s="172">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>0.2</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="116">
         <f ca="1"/>
-        <v>0.78855505962177541</v>
+        <v>4.2064386368875368</v>
       </c>
       <c r="M29" s="108">
         <f ca="1"/>
-        <v>3.3369743944658619</v>
+        <v>-5.3954710277386155</v>
       </c>
       <c r="N29" s="108">
         <f ca="1"/>
-        <v>1.3091567884359341</v>
+        <v>-0.20757013549095182</v>
       </c>
       <c r="O29" s="111">
         <f ca="1"/>
-        <v>-0.89509276904476365</v>
+        <v>1.2043479991630923</v>
       </c>
       <c r="P29" s="112">
         <f ca="1"/>
-        <v>-2.9931926653051835</v>
+        <v>-3.6318523328766061</v>
       </c>
       <c r="Q29" s="113">
         <f ca="1"/>
-        <v>2.9038609332799274</v>
+        <v>2.6440839967728973</v>
       </c>
       <c r="R29" s="108">
         <f ca="1"/>
-        <v>-2.3497520931146325</v>
+        <v>7.573139322098843</v>
       </c>
       <c r="S29" s="108">
         <f ca="1"/>
-        <v>-0.51755661775750716</v>
+        <v>-0.17096319913019664</v>
       </c>
       <c r="T29" s="110">
         <f ca="1"/>
-        <v>-1.8574614035375652</v>
+        <v>-5.7253307489406549</v>
       </c>
       <c r="U29" s="3"/>
       <c r="V29" s="61">
         <f ca="1"/>
-        <v>3.0000000000004041</v>
+        <v>2.9999999999999223</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="54">
@@ -14919,39 +14919,39 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="89">
         <f ca="1"/>
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AA29" s="74">
         <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AB29" s="74">
+        <f ca="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC29" s="74">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AD29" s="74">
+        <f ca="1"/>
         <v>0.8</v>
       </c>
-      <c r="AB29" s="74">
+      <c r="AE29" s="74">
+        <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="AF29" s="74">
+        <f ca="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="AG29" s="74">
+        <f ca="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH29" s="90">
         <f ca="1"/>
         <v>0.2</v>
-      </c>
-      <c r="AC29" s="74">
-        <f ca="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AD29" s="74">
-        <f ca="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AE29" s="74">
-        <f ca="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AF29" s="74">
-        <f ca="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AG29" s="74">
-        <f ca="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AH29" s="90">
-        <f ca="1"/>
-        <v>1.2</v>
       </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="91">
@@ -15004,31 +15004,31 @@
       <c r="A30" s="3"/>
       <c r="B30" s="178">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="C30" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D30" s="179">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="E30" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="F30" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="G30" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H30" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I30" s="72">
         <f t="shared" ca="1" si="3"/>
@@ -15036,49 +15036,49 @@
       </c>
       <c r="J30" s="172">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="120">
         <f ca="1"/>
-        <v>-0.57333746605634428</v>
+        <v>3.5423970473165838</v>
       </c>
       <c r="M30" s="105">
         <f ca="1"/>
-        <v>1.5048064726088985</v>
+        <v>-0.81538307345855321</v>
       </c>
       <c r="N30" s="105">
         <f ca="1"/>
-        <v>-4.9969473091341268</v>
+        <v>0.64354180094810498</v>
       </c>
       <c r="O30" s="116">
         <f ca="1"/>
-        <v>-1.7245495812502156</v>
+        <v>-12.310769452077468</v>
       </c>
       <c r="P30" s="108">
         <f ca="1"/>
-        <v>5.4971763261635296</v>
+        <v>-1.5620828659297021</v>
       </c>
       <c r="Q30" s="108">
         <f ca="1"/>
-        <v>-2.3879029127524638</v>
+        <v>8.0213495273832756</v>
       </c>
       <c r="R30" s="102">
         <f ca="1"/>
-        <v>-0.3166407012792537</v>
+        <v>6.4527479821366427</v>
       </c>
       <c r="S30" s="103">
         <f ca="1"/>
-        <v>5.8625309456958596E-2</v>
+        <v>9.559724968937207</v>
       </c>
       <c r="T30" s="104">
         <f ca="1"/>
-        <v>4.8218954595669885</v>
+        <v>-12.983182279534205</v>
       </c>
       <c r="U30" s="3"/>
       <c r="V30" s="31">
         <f ca="1"/>
-        <v>5.5000000000001776</v>
+        <v>5.4999999999997433</v>
       </c>
       <c r="W30" s="3"/>
       <c r="X30" s="32">
@@ -15087,39 +15087,39 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="89">
         <f ca="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="AA30" s="74">
+        <f ca="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AB30" s="74">
+        <f ca="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC30" s="74">
+        <f ca="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AD30" s="74">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE30" s="74">
+        <f ca="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF30" s="74">
+        <f ca="1"/>
         <v>0.6</v>
       </c>
-      <c r="AA30" s="74">
-        <f ca="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="AB30" s="74">
-        <f ca="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AC30" s="74">
-        <f ca="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="AD30" s="74">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE30" s="74">
-        <f ca="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AF30" s="74">
-        <f ca="1"/>
-        <v>0.2</v>
-      </c>
       <c r="AG30" s="74">
         <f ca="1"/>
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="AH30" s="90">
         <f ca="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="95">
@@ -15185,77 +15185,77 @@
       </c>
       <c r="C31" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="D31" s="179">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="E31" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="F31" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="G31" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H31" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="I31" s="72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="J31" s="172">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="116">
         <f ca="1"/>
-        <v>0.40318388255099552</v>
+        <v>4.7433518925414138</v>
       </c>
       <c r="M31" s="108">
         <f ca="1"/>
-        <v>-1.9291585624939132</v>
+        <v>-6.556739679203619</v>
       </c>
       <c r="N31" s="108">
         <f ca="1"/>
-        <v>0.61765365305270059</v>
+        <v>-0.38014023246291861</v>
       </c>
       <c r="O31" s="116">
         <f ca="1"/>
-        <v>0.10904099918823265</v>
+        <v>5.0751454990896026</v>
       </c>
       <c r="P31" s="108">
         <f ca="1"/>
-        <v>-0.77632456482002499</v>
+        <v>-4.5803900982321615</v>
       </c>
       <c r="Q31" s="108">
         <f ca="1"/>
-        <v>-0.49594108909895157</v>
+        <v>0.7083026755797901</v>
       </c>
       <c r="R31" s="107">
         <f ca="1"/>
-        <v>-4.6725874231881126E-2</v>
+        <v>8.2765443408763968</v>
       </c>
       <c r="S31" s="108">
         <f ca="1"/>
-        <v>1.3111629301258885</v>
+        <v>-2.405099051877035</v>
       </c>
       <c r="T31" s="109">
         <f ca="1"/>
-        <v>0.52215370601525091</v>
+        <v>-4.3944738495930409</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="42">
         <f ca="1"/>
-        <v>5.0000000000001616</v>
+        <v>4.9999999999996767</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="43">
@@ -15264,39 +15264,39 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="89">
         <f ca="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="AA31" s="74">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="74">
+        <f ca="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="AC31" s="74">
+        <f ca="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="AD31" s="74">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AE31" s="74">
+        <f ca="1"/>
         <v>0.4</v>
       </c>
-      <c r="AA31" s="74">
-        <f ca="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AB31" s="74">
-        <f ca="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="AC31" s="74">
-        <f ca="1"/>
-        <v>0.2</v>
-      </c>
-      <c r="AD31" s="74">
-        <f ca="1"/>
-        <v>0.4</v>
-      </c>
-      <c r="AE31" s="74">
+      <c r="AF31" s="74">
+        <f ca="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="AG31" s="74">
         <f ca="1"/>
         <v>1</v>
       </c>
-      <c r="AF31" s="74">
-        <f ca="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AG31" s="74">
-        <f ca="1"/>
-        <v>0.2</v>
-      </c>
       <c r="AH31" s="90">
         <f ca="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="91">
@@ -15357,15 +15357,15 @@
       <c r="A32" s="3"/>
       <c r="B32" s="180">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="181">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D32" s="182">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="E32" s="173">
         <f t="shared" ca="1" si="3"/>
@@ -15373,65 +15373,65 @@
       </c>
       <c r="F32" s="173">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="G32" s="173">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="H32" s="173">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32" s="173">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" s="174">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="121">
         <f ca="1"/>
-        <v>-0.70911987540274568</v>
+        <v>-6.8040880418848184</v>
       </c>
       <c r="M32" s="114">
         <f ca="1"/>
-        <v>-5.7618838613148915</v>
+        <v>4.5285885025874624</v>
       </c>
       <c r="N32" s="114">
         <f ca="1"/>
-        <v>2.1848930448843298</v>
+        <v>-1.1551706866646829</v>
       </c>
       <c r="O32" s="121">
         <f ca="1"/>
-        <v>2.0319603785485589</v>
+        <v>6.6006089306154339</v>
       </c>
       <c r="P32" s="114">
         <f ca="1"/>
-        <v>-0.14730431792992071</v>
+        <v>5.4843922263735214</v>
       </c>
       <c r="Q32" s="114">
         <f ca="1"/>
-        <v>-1.61794486955424</v>
+        <v>-6.8818643454082817</v>
       </c>
       <c r="R32" s="111">
         <f ca="1"/>
-        <v>3.299661410336411</v>
+        <v>-11.986603840700242</v>
       </c>
       <c r="S32" s="112">
         <f ca="1"/>
-        <v>0.72321212155646331</v>
+        <v>-5.7504985156637147</v>
       </c>
       <c r="T32" s="113">
         <f ca="1"/>
-        <v>-0.9641663824256913</v>
+        <v>15.176553564774975</v>
       </c>
       <c r="U32" s="3"/>
       <c r="V32" s="53">
         <f ca="1"/>
-        <v>4.0000000000001767</v>
+        <v>3.9999999999996492</v>
       </c>
       <c r="W32" s="3"/>
       <c r="X32" s="54">
@@ -15440,39 +15440,39 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="96">
         <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="AA32" s="97">
+        <f ca="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB32" s="97">
+        <f ca="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="97">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AD32" s="97">
+        <f ca="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE32" s="97">
+        <f ca="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF32" s="97">
+        <f ca="1"/>
         <v>1.2</v>
       </c>
-      <c r="AA32" s="97">
-        <f ca="1"/>
-        <v>1</v>
-      </c>
-      <c r="AB32" s="97">
-        <f ca="1"/>
-        <v>0.6</v>
-      </c>
-      <c r="AC32" s="97">
-        <f ca="1"/>
-        <v>1.6</v>
-      </c>
-      <c r="AD32" s="97">
-        <f ca="1"/>
-        <v>0.8</v>
-      </c>
-      <c r="AE32" s="97">
-        <f ca="1"/>
-        <v>1.8</v>
-      </c>
-      <c r="AF32" s="97">
-        <f ca="1"/>
-        <v>0.6</v>
-      </c>
       <c r="AG32" s="97">
         <f ca="1"/>
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AH32" s="98">
         <f ca="1"/>
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="99">
@@ -15732,39 +15732,39 @@
       </c>
       <c r="B36" s="64">
         <f t="array" aca="1" ref="B36:J44" ca="1">MINVERSE(B24:J32)</f>
-        <v>-0.37242522831647351</v>
+        <v>-0.21931960155092953</v>
       </c>
       <c r="C36" s="65">
         <f ca="1"/>
-        <v>8.668768503310989E-2</v>
+        <v>1.0737499082706834</v>
       </c>
       <c r="D36" s="66">
         <f ca="1"/>
-        <v>-0.51452019541588612</v>
+        <v>0.51821063450840665</v>
       </c>
       <c r="E36" s="100">
         <f ca="1"/>
-        <v>0.35800899143224796</v>
+        <v>-0.5418606443620968</v>
       </c>
       <c r="F36" s="100">
         <f ca="1"/>
-        <v>-0.3346313983534015</v>
+        <v>-0.39660583070760447</v>
       </c>
       <c r="G36" s="100">
         <f ca="1"/>
-        <v>0.12055528240106306</v>
+        <v>-3.0022601180320137E-2</v>
       </c>
       <c r="H36" s="100">
         <f ca="1"/>
-        <v>0.86313695850027683</v>
+        <v>0.19998260027571904</v>
       </c>
       <c r="I36" s="100">
         <f ca="1"/>
-        <v>-0.30377859840361543</v>
+        <v>-0.96257916989930714</v>
       </c>
       <c r="J36" s="101">
         <f ca="1"/>
-        <v>0.27116896465148405</v>
+        <v>0.5064277442988202</v>
       </c>
       <c r="K36" s="8"/>
       <c r="L36" s="13"/>
@@ -15783,39 +15783,39 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="64">
         <f t="array" aca="1" ref="Z36:AH44" ca="1">MINVERSE(Z24:AH32)</f>
-        <v>-0.37242522831647362</v>
+        <v>-0.21931960155093008</v>
       </c>
       <c r="AA36" s="65">
         <f ca="1"/>
-        <v>0.39475473632454861</v>
+        <v>1.1458687654641782</v>
       </c>
       <c r="AB36" s="66">
         <f ca="1"/>
-        <v>0.21968595369856983</v>
+        <v>0.28474394944203191</v>
       </c>
       <c r="AC36" s="100">
         <f ca="1"/>
-        <v>0.88125451140797728</v>
+        <v>0.7811899288365135</v>
       </c>
       <c r="AD36" s="100">
         <f ca="1"/>
-        <v>-0.28228075864882662</v>
+        <v>-0.37909706969258822</v>
       </c>
       <c r="AE36" s="100">
         <f ca="1"/>
-        <v>0.3177181952275841</v>
+        <v>-1.0652877346712826</v>
       </c>
       <c r="AF36" s="100">
         <f ca="1"/>
-        <v>0.36509190195729663</v>
+        <v>-0.70765878633000234</v>
       </c>
       <c r="AG36" s="100">
         <f ca="1"/>
-        <v>-0.61891809898421402</v>
+        <v>-0.65237427776144596</v>
       </c>
       <c r="AH36" s="101">
         <f ca="1"/>
-        <v>-0.98547457396616811</v>
+        <v>0.84655427767836955</v>
       </c>
       <c r="AI36" s="20"/>
       <c r="AJ36" s="21"/>
@@ -15853,39 +15853,39 @@
       <c r="A37" s="8"/>
       <c r="B37" s="73">
         <f ca="1"/>
-        <v>0.39475473632454905</v>
+        <v>1.1458687654641788</v>
       </c>
       <c r="C37" s="74">
         <f ca="1"/>
-        <v>1.5178534067014675</v>
+        <v>-0.62212321866284392</v>
       </c>
       <c r="D37" s="75">
         <f ca="1"/>
-        <v>-1.3196326013955277</v>
+        <v>-1.0052136866138899</v>
       </c>
       <c r="E37" s="74">
         <f ca="1"/>
-        <v>-0.92616590473998572</v>
+        <v>-0.13771627926511251</v>
       </c>
       <c r="F37" s="74">
         <f ca="1"/>
-        <v>-1.3514609115920955</v>
+        <v>0.38506178286713122</v>
       </c>
       <c r="G37" s="74">
         <f ca="1"/>
-        <v>0.3800043937190733</v>
+        <v>0.17421877776398406</v>
       </c>
       <c r="H37" s="74">
         <f ca="1"/>
-        <v>1.7280523271019224</v>
+        <v>8.9708963073354797E-2</v>
       </c>
       <c r="I37" s="74">
         <f ca="1"/>
-        <v>-0.34773148099716494</v>
+        <v>-4.8549038376775211E-2</v>
       </c>
       <c r="J37" s="90">
         <f ca="1"/>
-        <v>0.64619707922293868</v>
+        <v>0.12926449011654093</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="13"/>
@@ -15904,39 +15904,39 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="73">
         <f ca="1"/>
-        <v>8.6687685033109488E-2</v>
+        <v>1.0737499082706849</v>
       </c>
       <c r="AA37" s="74">
         <f ca="1"/>
-        <v>1.5178534067014677</v>
+        <v>-0.62212321866284281</v>
       </c>
       <c r="AB37" s="75">
         <f ca="1"/>
-        <v>-0.23817618813486624</v>
+        <v>-0.19198311165223067</v>
       </c>
       <c r="AC37" s="74">
         <f ca="1"/>
-        <v>-0.63042676611814941</v>
+        <v>-1.9201588036374202</v>
       </c>
       <c r="AD37" s="74">
         <f ca="1"/>
-        <v>-0.10521061083156373</v>
+        <v>-0.52837239656048507</v>
       </c>
       <c r="AE37" s="74">
         <f ca="1"/>
-        <v>0.38970719000742765</v>
+        <v>1.7575475342467657</v>
       </c>
       <c r="AF37" s="74">
         <f ca="1"/>
-        <v>-8.7903803705370209E-2</v>
+        <v>1.5673182409571056</v>
       </c>
       <c r="AG37" s="74">
         <f ca="1"/>
-        <v>-0.53148962768461483</v>
+        <v>1.5851125743699768</v>
       </c>
       <c r="AH37" s="90">
         <f ca="1"/>
-        <v>-5.8664649391679181E-2</v>
+        <v>-2.4340368144935556</v>
       </c>
       <c r="AI37" s="20"/>
       <c r="AJ37" s="21"/>
@@ -15973,39 +15973,39 @@
       <c r="A38" s="8"/>
       <c r="B38" s="80">
         <f ca="1"/>
-        <v>0.21968595369856983</v>
+        <v>0.28474394944203207</v>
       </c>
       <c r="C38" s="81">
         <f ca="1"/>
-        <v>-0.23817618813486624</v>
+        <v>-0.19198311165223117</v>
       </c>
       <c r="D38" s="82">
         <f ca="1"/>
-        <v>-0.25870636356979226</v>
+        <v>-0.20686056820945781</v>
       </c>
       <c r="E38" s="74">
         <f ca="1"/>
-        <v>-0.27526126936636286</v>
+        <v>4.5356973574111177E-2</v>
       </c>
       <c r="F38" s="74">
         <f ca="1"/>
-        <v>0.71834691550459751</v>
+        <v>-0.27936826539517928</v>
       </c>
       <c r="G38" s="74">
         <f ca="1"/>
-        <v>-9.9904802753396985E-2</v>
+        <v>0.46458879190068236</v>
       </c>
       <c r="H38" s="74">
         <f ca="1"/>
-        <v>0.35780042054168282</v>
+        <v>6.1568255149187616E-2</v>
       </c>
       <c r="I38" s="74">
         <f ca="1"/>
-        <v>-3.4182088271908426E-2</v>
+        <v>-0.68139881783411693</v>
       </c>
       <c r="J38" s="90">
         <f ca="1"/>
-        <v>4.2603383163687135E-2</v>
+        <v>0.71721248109453006</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="13"/>
@@ -16024,39 +16024,39 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="80">
         <f ca="1"/>
-        <v>-0.51452019541588601</v>
+        <v>0.51821063450840765</v>
       </c>
       <c r="AA38" s="81">
         <f ca="1"/>
-        <v>-1.3196326013955277</v>
+        <v>-1.005213686613889</v>
       </c>
       <c r="AB38" s="82">
         <f ca="1"/>
-        <v>-0.25870636356979232</v>
+        <v>-0.20686056820945756</v>
       </c>
       <c r="AC38" s="74">
         <f ca="1"/>
-        <v>0.7336464729943194</v>
+        <v>-0.53627611747075454</v>
       </c>
       <c r="AD38" s="74">
         <f ca="1"/>
-        <v>1.355990626732642</v>
+        <v>-3.6346731736404507E-2</v>
       </c>
       <c r="AE38" s="74">
         <f ca="1"/>
-        <v>-1.0822462365703884</v>
+        <v>0.692157108895044</v>
       </c>
       <c r="AF38" s="74">
         <f ca="1"/>
-        <v>1.47410844117124</v>
+        <v>0.73480027931865166</v>
       </c>
       <c r="AG38" s="74">
         <f ca="1"/>
-        <v>-7.5435972005732724E-2</v>
+        <v>1.2925941327391284</v>
       </c>
       <c r="AH38" s="90">
         <f ca="1"/>
-        <v>-8.1153037419840618E-2</v>
+        <v>-1.2737636618988968</v>
       </c>
       <c r="AI38" s="20"/>
       <c r="AJ38" s="21"/>
@@ -16093,39 +16093,39 @@
       <c r="A39" s="8"/>
       <c r="B39" s="64">
         <f ca="1"/>
-        <v>0.88125451140797773</v>
+        <v>0.78118992883651128</v>
       </c>
       <c r="C39" s="65">
         <f ca="1"/>
-        <v>-0.63042676611814907</v>
+        <v>-1.9201588036374171</v>
       </c>
       <c r="D39" s="66">
         <f ca="1"/>
-        <v>0.73364647299431895</v>
+        <v>-0.5362761174707521</v>
       </c>
       <c r="E39" s="74">
         <f ca="1"/>
-        <v>5.652336517036121E-2</v>
+        <v>0.504852769256117</v>
       </c>
       <c r="F39" s="74">
         <f ca="1"/>
-        <v>0.75302591248130046</v>
+        <v>-1.7849520999898023</v>
       </c>
       <c r="G39" s="74">
         <f ca="1"/>
-        <v>-0.54361812304505619</v>
+        <v>1.6720673503173731</v>
       </c>
       <c r="H39" s="74">
         <f ca="1"/>
-        <v>-0.62899488445564933</v>
+        <v>0.14472001443669313</v>
       </c>
       <c r="I39" s="74">
         <f ca="1"/>
-        <v>-7.9976148382169682E-2</v>
+        <v>1.4094803574651023</v>
       </c>
       <c r="J39" s="90">
         <f ca="1"/>
-        <v>-0.46124242868052412</v>
+        <v>0.29136230610499908</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="13"/>
@@ -16144,39 +16144,39 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="64">
         <f ca="1"/>
-        <v>0.35800899143224801</v>
+        <v>-0.54186064436209702</v>
       </c>
       <c r="AA39" s="65">
         <f ca="1"/>
-        <v>-0.92616590473998561</v>
+        <v>-0.13771627926511312</v>
       </c>
       <c r="AB39" s="66">
         <f ca="1"/>
-        <v>-0.27526126936636292</v>
+        <v>4.5356973574111052E-2</v>
       </c>
       <c r="AC39" s="74">
         <f ca="1"/>
-        <v>5.6523365170361536E-2</v>
+        <v>0.50485276925611811</v>
       </c>
       <c r="AD39" s="74">
         <f ca="1"/>
-        <v>9.9226783902250329E-2</v>
+        <v>0.19028006171594511</v>
       </c>
       <c r="AE39" s="74">
         <f ca="1"/>
-        <v>-0.53797428628218136</v>
+        <v>-5.6189109618724614E-2</v>
       </c>
       <c r="AF39" s="74">
         <f ca="1"/>
-        <v>0.23748901570231568</v>
+        <v>-0.28530470978690664</v>
       </c>
       <c r="AG39" s="74">
         <f ca="1"/>
-        <v>0.48084678473914905</v>
+        <v>-0.57011788890114523</v>
       </c>
       <c r="AH39" s="90">
         <f ca="1"/>
-        <v>0.66185951083260963</v>
+        <v>0.92676146824134975</v>
       </c>
       <c r="AI39" s="20"/>
       <c r="AJ39" s="21"/>
@@ -16213,39 +16213,39 @@
       <c r="A40" s="8"/>
       <c r="B40" s="73">
         <f ca="1"/>
-        <v>-0.28228075864882651</v>
+        <v>-0.37909706969258805</v>
       </c>
       <c r="C40" s="74">
         <f ca="1"/>
-        <v>-0.1052106108315637</v>
+        <v>-0.52837239656048451</v>
       </c>
       <c r="D40" s="75">
         <f ca="1"/>
-        <v>1.3559906267326418</v>
+        <v>-3.6346731736404188E-2</v>
       </c>
       <c r="E40" s="74">
         <f ca="1"/>
-        <v>9.9226783902249982E-2</v>
+        <v>0.19028006171594489</v>
       </c>
       <c r="F40" s="74">
         <f ca="1"/>
-        <v>4.296952641985494E-3</v>
+        <v>0.80275554864284393</v>
       </c>
       <c r="G40" s="74">
         <f ca="1"/>
-        <v>-0.40377232166208121</v>
+        <v>-0.21708809845013222</v>
       </c>
       <c r="H40" s="74">
         <f ca="1"/>
-        <v>-1.4242122689374517</v>
+        <v>4.2695092677761746E-2</v>
       </c>
       <c r="I40" s="74">
         <f ca="1"/>
-        <v>0.83802868470881142</v>
+        <v>1.1019246541170187</v>
       </c>
       <c r="J40" s="90">
         <f ca="1"/>
-        <v>-0.61884944712368317</v>
+        <v>-0.87173887859930743</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="13"/>
@@ -16264,39 +16264,39 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="73">
         <f ca="1"/>
-        <v>-0.33463139835340122</v>
+        <v>-0.39660583070760486</v>
       </c>
       <c r="AA40" s="74">
         <f ca="1"/>
-        <v>-1.3514609115920952</v>
+        <v>0.3850617828671325</v>
       </c>
       <c r="AB40" s="75">
         <f ca="1"/>
-        <v>0.71834691550459762</v>
+        <v>-0.27936826539517923</v>
       </c>
       <c r="AC40" s="74">
         <f ca="1"/>
-        <v>0.75302591248130035</v>
+        <v>-1.7849520999898019</v>
       </c>
       <c r="AD40" s="74">
         <f ca="1"/>
-        <v>4.2969526419849875E-3</v>
+        <v>0.80275554864284415</v>
       </c>
       <c r="AE40" s="74">
         <f ca="1"/>
-        <v>-0.16669456329570781</v>
+        <v>1.0012000963677048</v>
       </c>
       <c r="AF40" s="74">
         <f ca="1"/>
-        <v>1.1841046751263191</v>
+        <v>-0.6981345141761589</v>
       </c>
       <c r="AG40" s="74">
         <f ca="1"/>
-        <v>-0.21057421723802444</v>
+        <v>1.496785897085017</v>
       </c>
       <c r="AH40" s="90">
         <f ca="1"/>
-        <v>-0.78280120513437446</v>
+        <v>-0.42470788539812554</v>
       </c>
       <c r="AI40" s="20"/>
       <c r="AJ40" s="21"/>
@@ -16333,39 +16333,39 @@
       <c r="A41" s="8"/>
       <c r="B41" s="80">
         <f ca="1"/>
-        <v>0.31771819522758382</v>
+        <v>-1.0652877346712812</v>
       </c>
       <c r="C41" s="81">
         <f ca="1"/>
-        <v>0.38970719000742737</v>
+        <v>1.7575475342467646</v>
       </c>
       <c r="D41" s="82">
         <f ca="1"/>
-        <v>-1.0822462365703878</v>
+        <v>0.69215710889504312</v>
       </c>
       <c r="E41" s="74">
         <f ca="1"/>
-        <v>-0.53797428628218102</v>
+        <v>-5.6189109618724351E-2</v>
       </c>
       <c r="F41" s="74">
         <f ca="1"/>
-        <v>-0.16669456329570784</v>
+        <v>1.0012000963677061</v>
       </c>
       <c r="G41" s="74">
         <f ca="1"/>
-        <v>-0.11829565544873469</v>
+        <v>-0.92023772546373628</v>
       </c>
       <c r="H41" s="74">
         <f ca="1"/>
-        <v>0.79591697963197305</v>
+        <v>-0.43941111394696314</v>
       </c>
       <c r="I41" s="74">
         <f ca="1"/>
-        <v>0.3275883712901842</v>
+        <v>-0.8993828636253911</v>
       </c>
       <c r="J41" s="90">
         <f ca="1"/>
-        <v>0.74625749286020615</v>
+        <v>-0.46608530664821984</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="13"/>
@@ -16384,39 +16384,39 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="80">
         <f ca="1"/>
-        <v>0.12055528240106278</v>
+        <v>-3.0022601180320369E-2</v>
       </c>
       <c r="AA41" s="81">
         <f ca="1"/>
-        <v>0.38000439371907385</v>
+        <v>0.1742187777639834</v>
       </c>
       <c r="AB41" s="82">
         <f ca="1"/>
-        <v>-9.9904802753397276E-2</v>
+        <v>0.46458879190068225</v>
       </c>
       <c r="AC41" s="74">
         <f ca="1"/>
-        <v>-0.54361812304505619</v>
+        <v>1.6720673503173731</v>
       </c>
       <c r="AD41" s="74">
         <f ca="1"/>
-        <v>-0.40377232166208082</v>
+        <v>-0.21708809845013213</v>
       </c>
       <c r="AE41" s="74">
         <f ca="1"/>
-        <v>-0.1182956554487347</v>
+        <v>-0.92023772546373561</v>
       </c>
       <c r="AF41" s="74">
         <f ca="1"/>
-        <v>-0.92912512684248461</v>
+        <v>-0.24365152367585621</v>
       </c>
       <c r="AG41" s="74">
         <f ca="1"/>
-        <v>0.5600318021571068</v>
+        <v>-1.3624514873072024</v>
       </c>
       <c r="AH41" s="90">
         <f ca="1"/>
-        <v>1.1564896276846146</v>
+        <v>0.52939468805340573</v>
       </c>
       <c r="AI41" s="20"/>
       <c r="AJ41" s="21"/>
@@ -16453,39 +16453,39 @@
       <c r="A42" s="8"/>
       <c r="B42" s="64">
         <f ca="1"/>
-        <v>0.36509190195729735</v>
+        <v>-0.70765878633000134</v>
       </c>
       <c r="C42" s="65">
         <f ca="1"/>
-        <v>-8.7903803705369737E-2</v>
+        <v>1.5673182409571045</v>
       </c>
       <c r="D42" s="66">
         <f ca="1"/>
-        <v>1.4741084411712393</v>
+        <v>0.73480027931865033</v>
       </c>
       <c r="E42" s="74">
         <f ca="1"/>
-        <v>0.23748901570231479</v>
+        <v>-0.28530470978690647</v>
       </c>
       <c r="F42" s="74">
         <f ca="1"/>
-        <v>1.1841046751263198</v>
+        <v>-0.69813451417615746</v>
       </c>
       <c r="G42" s="74">
         <f ca="1"/>
-        <v>-0.92912512684248516</v>
+        <v>-0.24365152367585668</v>
       </c>
       <c r="H42" s="74">
         <f ca="1"/>
-        <v>-1.5071044868240728</v>
+        <v>-0.67409970272778708</v>
       </c>
       <c r="I42" s="74">
         <f ca="1"/>
-        <v>0.11718153382640653</v>
+        <v>-1.4035710280283245</v>
       </c>
       <c r="J42" s="90">
         <f ca="1"/>
-        <v>-0.74651967758470972</v>
+        <v>1.4439405806338745</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="13"/>
@@ -16504,39 +16504,39 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="64">
         <f ca="1"/>
-        <v>0.86313695850027683</v>
+        <v>0.19998260027571857</v>
       </c>
       <c r="AA42" s="65">
         <f ca="1"/>
-        <v>1.728052327101923</v>
+        <v>8.9708963073354284E-2</v>
       </c>
       <c r="AB42" s="66">
         <f ca="1"/>
-        <v>0.35780042054168287</v>
+        <v>6.1568255149187505E-2</v>
       </c>
       <c r="AC42" s="74">
         <f ca="1"/>
-        <v>-0.62899488445564955</v>
+        <v>0.14472001443669455</v>
       </c>
       <c r="AD42" s="74">
         <f ca="1"/>
-        <v>-1.4242122689374521</v>
+        <v>4.2695092677762232E-2</v>
       </c>
       <c r="AE42" s="74">
         <f ca="1"/>
-        <v>0.79591697963197383</v>
+        <v>-0.43941111394696358</v>
       </c>
       <c r="AF42" s="74">
         <f ca="1"/>
-        <v>-1.5071044868240735</v>
+        <v>-0.67409970272778763</v>
       </c>
       <c r="AG42" s="74">
         <f ca="1"/>
-        <v>6.7331129499639028E-2</v>
+        <v>-0.52204249686505</v>
       </c>
       <c r="AH42" s="90">
         <f ca="1"/>
-        <v>-0.24461638647989886</v>
+        <v>1.1600608482665584</v>
       </c>
       <c r="AI42" s="20"/>
       <c r="AJ42" s="21"/>
@@ -16573,39 +16573,39 @@
       <c r="A43" s="8"/>
       <c r="B43" s="73">
         <f ca="1"/>
-        <v>-0.61891809898421379</v>
+        <v>-0.65237427776144441</v>
       </c>
       <c r="C43" s="74">
         <f ca="1"/>
-        <v>-0.53148962768461483</v>
+        <v>1.5851125743699743</v>
       </c>
       <c r="D43" s="75">
         <f ca="1"/>
-        <v>-7.5435972005732793E-2</v>
+        <v>1.2925941327391264</v>
       </c>
       <c r="E43" s="74">
         <f ca="1"/>
-        <v>0.48084678473914905</v>
+        <v>-0.57011788890114479</v>
       </c>
       <c r="F43" s="74">
         <f ca="1"/>
-        <v>-0.21057421723802455</v>
+        <v>1.4967858970850179</v>
       </c>
       <c r="G43" s="74">
         <f ca="1"/>
-        <v>0.56003180215710691</v>
+        <v>-1.3624514873072024</v>
       </c>
       <c r="H43" s="74">
         <f ca="1"/>
-        <v>6.7331129499639208E-2</v>
+        <v>-0.52204249686504911</v>
       </c>
       <c r="I43" s="74">
         <f ca="1"/>
-        <v>-0.30262786245567069</v>
+        <v>-0.70755609564956012</v>
       </c>
       <c r="J43" s="90">
         <f ca="1"/>
-        <v>0.46890266866127578</v>
+        <v>-0.75634339948151819</v>
       </c>
       <c r="K43" s="8"/>
       <c r="L43" s="13"/>
@@ -16624,39 +16624,39 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="73">
         <f ca="1"/>
-        <v>-0.30377859840361526</v>
+        <v>-0.9625791698993077</v>
       </c>
       <c r="AA43" s="74">
         <f ca="1"/>
-        <v>-0.34773148099716483</v>
+        <v>-4.8549038376776696E-2</v>
       </c>
       <c r="AB43" s="75">
         <f ca="1"/>
-        <v>-3.4182088271908294E-2</v>
+        <v>-0.68139881783411749</v>
       </c>
       <c r="AC43" s="74">
         <f ca="1"/>
-        <v>-7.9976148382169945E-2</v>
+        <v>1.4094803574651047</v>
       </c>
       <c r="AD43" s="74">
         <f ca="1"/>
-        <v>0.8380286847088112</v>
+        <v>1.1019246541170191</v>
       </c>
       <c r="AE43" s="74">
         <f ca="1"/>
-        <v>0.32758837129018425</v>
+        <v>-0.89938286362539144</v>
       </c>
       <c r="AF43" s="74">
         <f ca="1"/>
-        <v>0.11718153382640598</v>
+        <v>-1.4035710280283249</v>
       </c>
       <c r="AG43" s="74">
         <f ca="1"/>
-        <v>-0.30262786245567047</v>
+        <v>-0.70755609564956135</v>
       </c>
       <c r="AH43" s="90">
         <f ca="1"/>
-        <v>-3.6248182360264135E-2</v>
+        <v>2.18319463553116</v>
       </c>
       <c r="AI43" s="20"/>
       <c r="AJ43" s="21"/>
@@ -16693,39 +16693,39 @@
       <c r="A44" s="8"/>
       <c r="B44" s="80">
         <f ca="1"/>
-        <v>-0.98547457396616789</v>
+        <v>0.84655427767836888</v>
       </c>
       <c r="C44" s="81">
         <f ca="1"/>
-        <v>-5.8664649391679168E-2</v>
+        <v>-2.4340368144935538</v>
       </c>
       <c r="D44" s="82">
         <f ca="1"/>
-        <v>-8.1153037419840882E-2</v>
+        <v>-1.273763661898895</v>
       </c>
       <c r="E44" s="97">
         <f ca="1"/>
-        <v>0.66185951083260941</v>
+        <v>0.9267614682413492</v>
       </c>
       <c r="F44" s="97">
         <f ca="1"/>
-        <v>-0.78280120513437457</v>
+        <v>-0.42470788539812754</v>
       </c>
       <c r="G44" s="97">
         <f ca="1"/>
-        <v>1.1564896276846144</v>
+        <v>0.5293946880534065</v>
       </c>
       <c r="H44" s="97">
         <f ca="1"/>
-        <v>-0.24461638647989828</v>
+        <v>1.1600608482665575</v>
       </c>
       <c r="I44" s="97">
         <f ca="1"/>
-        <v>-3.6248182360264385E-2</v>
+        <v>2.1831946355311587</v>
       </c>
       <c r="J44" s="98">
         <f ca="1"/>
-        <v>-0.13486167630843895</v>
+        <v>-0.94608577740998567</v>
       </c>
       <c r="K44" s="8"/>
       <c r="L44" s="13"/>
@@ -16744,39 +16744,39 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="80">
         <f ca="1"/>
-        <v>0.27116896465148377</v>
+        <v>0.50642774429882043</v>
       </c>
       <c r="AA44" s="81">
         <f ca="1"/>
-        <v>0.6461970792229389</v>
+        <v>0.1292644901165417</v>
       </c>
       <c r="AB44" s="82">
         <f ca="1"/>
-        <v>4.2603383163687079E-2</v>
+        <v>0.7172124810945304</v>
       </c>
       <c r="AC44" s="97">
         <f ca="1"/>
-        <v>-0.46124242868052412</v>
+        <v>0.29136230610499664</v>
       </c>
       <c r="AD44" s="97">
         <f ca="1"/>
-        <v>-0.61884944712368317</v>
+        <v>-0.87173887859930788</v>
       </c>
       <c r="AE44" s="97">
         <f ca="1"/>
-        <v>0.74625749286020637</v>
+        <v>-0.46608530664821857</v>
       </c>
       <c r="AF44" s="97">
         <f ca="1"/>
-        <v>-0.74651967758470961</v>
+        <v>1.443940580633875</v>
       </c>
       <c r="AG44" s="97">
         <f ca="1"/>
-        <v>0.46890266866127567</v>
+        <v>-0.75634339948151685</v>
       </c>
       <c r="AH44" s="98">
         <f ca="1"/>
-        <v>-0.13486167630843926</v>
+        <v>-0.94608577740998723</v>
       </c>
       <c r="AI44" s="20"/>
       <c r="AJ44" s="21"/>
